--- a/VARIABLES/or_filtrat.xlsx
+++ b/VARIABLES/or_filtrat.xlsx
@@ -591,7 +591,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45452</v>
+        <v>45541</v>
       </c>
       <c r="B7" t="n">
         <v>2337</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45445</v>
+        <v>45328</v>
       </c>
       <c r="B8" t="n">
         <v>2313.2</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45424</v>
+        <v>45631</v>
       </c>
       <c r="B11" t="n">
         <v>2428.6</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45389</v>
+        <v>45477</v>
       </c>
       <c r="B16" t="n">
         <v>2374.1</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45361</v>
+        <v>45568</v>
       </c>
       <c r="B20" t="n">
         <v>2161.5</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45333</v>
+        <v>45598</v>
       </c>
       <c r="B24" t="n">
         <v>2024.1</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45326</v>
+        <v>45384</v>
       </c>
       <c r="B25" t="n">
         <v>2038.7</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45298</v>
+        <v>45474</v>
       </c>
       <c r="B29" t="n">
         <v>2051.6</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45270</v>
+        <v>45211</v>
       </c>
       <c r="B33" t="n">
         <v>2035.7</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45263</v>
+        <v>44997</v>
       </c>
       <c r="B34" t="n">
         <v>2014.5</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45242</v>
+        <v>45271</v>
       </c>
       <c r="B37" t="n">
         <v>1984.7</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45235</v>
+        <v>45057</v>
       </c>
       <c r="B38" t="n">
         <v>1937.7</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45207</v>
+        <v>45148</v>
       </c>
       <c r="B42" t="n">
         <v>1941.5</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45200</v>
+        <v>44936</v>
       </c>
       <c r="B43" t="n">
         <v>1845.2</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45179</v>
+        <v>45208</v>
       </c>
       <c r="B46" t="n">
         <v>1946.2</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45172</v>
+        <v>44994</v>
       </c>
       <c r="B47" t="n">
         <v>1942.7</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45144</v>
+        <v>45085</v>
       </c>
       <c r="B51" t="n">
         <v>1946.6</v>

--- a/VARIABLES/or_filtrat.xlsx
+++ b/VARIABLES/or_filtrat.xlsx
@@ -736,7 +736,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45633</v>
+        <v>45485</v>
       </c>
       <c r="B10" t="n">
         <v>2420.7</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45603</v>
+        <v>45484</v>
       </c>
       <c r="B11" t="n">
         <v>2421.9</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45572</v>
+        <v>45483</v>
       </c>
       <c r="B12" t="n">
         <v>2379.7</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45542</v>
+        <v>45482</v>
       </c>
       <c r="B13" t="n">
         <v>2367.9</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45511</v>
+        <v>45481</v>
       </c>
       <c r="B14" t="n">
         <v>2363.5</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45419</v>
+        <v>45478</v>
       </c>
       <c r="B15" t="n">
         <v>2397.7</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45389</v>
+        <v>45477</v>
       </c>
       <c r="B16" t="n">
         <v>2364.6</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45358</v>
+        <v>45476</v>
       </c>
       <c r="B17" t="n">
         <v>2369.4</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45329</v>
+        <v>45475</v>
       </c>
       <c r="B18" t="n">
         <v>2333.4</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45298</v>
+        <v>45474</v>
       </c>
       <c r="B19" t="n">
         <v>2338.9</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45632</v>
+        <v>45455</v>
       </c>
       <c r="B32" t="n">
         <v>2354.8</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45602</v>
+        <v>45454</v>
       </c>
       <c r="B33" t="n">
         <v>2326.6</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45571</v>
+        <v>45453</v>
       </c>
       <c r="B34" t="n">
         <v>2327</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45479</v>
+        <v>45450</v>
       </c>
       <c r="B35" t="n">
         <v>2325</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45418</v>
+        <v>45448</v>
       </c>
       <c r="B37" t="n">
         <v>2375.5</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45388</v>
+        <v>45447</v>
       </c>
       <c r="B38" t="n">
         <v>2347.4</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45357</v>
+        <v>45446</v>
       </c>
       <c r="B39" t="n">
         <v>2369.3</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45570</v>
+        <v>45422</v>
       </c>
       <c r="B55" t="n">
         <v>2385.6</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45540</v>
+        <v>45421</v>
       </c>
       <c r="B56" t="n">
         <v>2350.9</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45509</v>
+        <v>45420</v>
       </c>
       <c r="B57" t="n">
         <v>2332.8</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45478</v>
+        <v>45419</v>
       </c>
       <c r="B58" t="n">
         <v>2334.8</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45448</v>
+        <v>45418</v>
       </c>
       <c r="B59" t="n">
         <v>2341.6</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45356</v>
+        <v>45415</v>
       </c>
       <c r="B60" t="n">
         <v>2308.6</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45327</v>
+        <v>45414</v>
       </c>
       <c r="B61" t="n">
         <v>2309.6</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45296</v>
+        <v>45413</v>
       </c>
       <c r="B62" t="n">
         <v>2311</v>

--- a/VARIABLES/or_filtrat.xlsx
+++ b/VARIABLES/or_filtrat.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,920 +476,920 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45515</v>
+        <v>45522</v>
       </c>
       <c r="B2" t="n">
-        <v>2500</v>
+        <v>2542.3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.471,25</t>
+          <t>2.546,85</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.517,10</t>
+          <t>2.570,20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.462,65</t>
+          <t>2.524,00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>171,20K</t>
+          <t>148,89K</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,18%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45508</v>
+        <v>45515</v>
       </c>
       <c r="B3" t="n">
-        <v>2473.4</v>
+        <v>2537.8</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.485,85</t>
+          <t>2.471,25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.500,15</t>
+          <t>2.548,30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.404,05</t>
+          <t>2.462,65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>152,17K</t>
+          <t>223,93K</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>2,60%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45501</v>
+        <v>45508</v>
       </c>
       <c r="B4" t="n">
-        <v>2469.8</v>
+        <v>2473.4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.410,10</t>
+          <t>2.485,85</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.522,50</t>
+          <t>2.500,15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.391,60</t>
+          <t>2.404,05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>595,19K</t>
+          <t>152,17K</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>0,15%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45494</v>
+        <v>45501</v>
       </c>
       <c r="B5" t="n">
-        <v>2404.5</v>
+        <v>2469.8</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.427,50</t>
+          <t>2.410,10</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.456,70</t>
+          <t>2.522,50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.375,10</t>
+          <t>2.391,60</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>76,94K</t>
+          <t>595,19K</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0,76%</t>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45487</v>
+        <v>45494</v>
       </c>
       <c r="B6" t="n">
-        <v>2423</v>
+        <v>2404.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.444,20</t>
+          <t>2.427,50</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.512,80</t>
+          <t>2.456,70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.419,60</t>
+          <t>2.375,10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>53,77K</t>
+          <t>76,94K</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0,88%</t>
+          <t>-0,76%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45480</v>
+        <v>45487</v>
       </c>
       <c r="B7" t="n">
-        <v>2444.5</v>
+        <v>2423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.419,00</t>
+          <t>2.444,20</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.453,80</t>
+          <t>2.512,80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.380,00</t>
+          <t>2.419,60</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>40,63K</t>
+          <t>53,77K</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>-0,88%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45473</v>
+        <v>45480</v>
       </c>
       <c r="B8" t="n">
-        <v>2421.1</v>
+        <v>2444.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.356,30</t>
+          <t>2.419,00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.424,80</t>
+          <t>2.453,80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.350,80</t>
+          <t>2.380,00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>19,51K</t>
+          <t>40,63K</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>0,97%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45466</v>
+        <v>45473</v>
       </c>
       <c r="B9" t="n">
-        <v>2362.5</v>
+        <v>2421.1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.354,50</t>
+          <t>2.356,30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.373,10</t>
+          <t>2.424,80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.327,50</t>
+          <t>2.350,80</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>13,19K</t>
+          <t>19,51K</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>2,48%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B10" t="n">
-        <v>2353.9</v>
+        <v>2362.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.369,20</t>
+          <t>2.354,50</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.403,50</t>
+          <t>2.373,10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.345,00</t>
+          <t>2.327,50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6,77K</t>
+          <t>13,19K</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0,76%</t>
+          <t>0,37%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45452</v>
+        <v>45459</v>
       </c>
       <c r="B11" t="n">
-        <v>2371.9</v>
+        <v>2353.9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.330,00</t>
+          <t>2.369,20</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.381,10</t>
+          <t>2.403,50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.327,20</t>
+          <t>2.345,00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8,22K</t>
+          <t>6,77K</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>-0,76%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45445</v>
+        <v>45452</v>
       </c>
       <c r="B12" t="n">
-        <v>2347.6</v>
+        <v>2371.9</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.370,00</t>
+          <t>2.330,00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.429,20</t>
+          <t>2.381,10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.326,90</t>
+          <t>2.327,20</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>13,79K</t>
+          <t>8,22K</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0,88%</t>
+          <t>1,04%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45438</v>
+        <v>45445</v>
       </c>
       <c r="B13" t="n">
-        <v>2368.5</v>
+        <v>2347.6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.359,80</t>
+          <t>2.370,00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.404,00</t>
+          <t>2.429,20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.356,60</t>
+          <t>2.326,90</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>306,84K</t>
+          <t>13,79K</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>-0,88%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45431</v>
+        <v>45438</v>
       </c>
       <c r="B14" t="n">
-        <v>2356.9</v>
+        <v>2368.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.445,70</t>
+          <t>2.359,80</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.477,00</t>
+          <t>2.404,00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.348,70</t>
+          <t>2.356,60</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>253,10K</t>
+          <t>306,84K</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-3,42%</t>
+          <t>0,49%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45424</v>
+        <v>45431</v>
       </c>
       <c r="B15" t="n">
-        <v>2440.4</v>
+        <v>2356.9</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.392,10</t>
+          <t>2.445,70</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.450,10</t>
+          <t>2.477,00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.360,40</t>
+          <t>2.348,70</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>172,90K</t>
+          <t>253,10K</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>-3,42%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45417</v>
+        <v>45424</v>
       </c>
       <c r="B16" t="n">
-        <v>2397.7</v>
+        <v>2440.4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.335,10</t>
+          <t>2.392,10</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.407,60</t>
+          <t>2.450,10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.322,70</t>
+          <t>2.360,40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>289,92K</t>
+          <t>172,90K</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45410</v>
+        <v>45417</v>
       </c>
       <c r="B17" t="n">
-        <v>2330.6</v>
+        <v>2397.7</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.369,70</t>
+          <t>2.335,10</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.380,70</t>
+          <t>2.407,60</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.308,70</t>
+          <t>2.322,70</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>89,23K</t>
+          <t>289,92K</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-1,63%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45403</v>
+        <v>45410</v>
       </c>
       <c r="B18" t="n">
-        <v>2369.3</v>
+        <v>2330.6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.425,40</t>
+          <t>2.369,70</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.425,40</t>
+          <t>2.380,70</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.326,00</t>
+          <t>2.308,70</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>46,78K</t>
+          <t>89,23K</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>-1,63%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45396</v>
+        <v>45403</v>
       </c>
       <c r="B19" t="n">
-        <v>2436.1</v>
+        <v>2369.3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.392,10</t>
+          <t>2.425,40</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.455,50</t>
+          <t>2.425,40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.362,30</t>
+          <t>2.326,00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>36,42K</t>
+          <t>46,78K</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>-2,74%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45389</v>
+        <v>45396</v>
       </c>
       <c r="B20" t="n">
-        <v>2396.3</v>
+        <v>2436.1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.370,10</t>
+          <t>2.392,10</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.471,30</t>
+          <t>2.455,50</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.343,00</t>
+          <t>2.362,30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>69,83K</t>
+          <t>36,42K</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,66%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45382</v>
+        <v>45389</v>
       </c>
       <c r="B21" t="n">
-        <v>2366.6</v>
+        <v>2396.3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2.280,10</t>
+          <t>2.370,10</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.370,90</t>
+          <t>2.471,30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.269,60</t>
+          <t>2.343,00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>37,10K</t>
+          <t>69,83K</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45375</v>
+        <v>45382</v>
       </c>
       <c r="B22" t="n">
-        <v>2258.4</v>
+        <v>2366.6</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2.188,50</t>
+          <t>2.280,10</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.276,80</t>
+          <t>2.370,90</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.186,10</t>
+          <t>2.269,60</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>356,98K</t>
+          <t>37,10K</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>4,79%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45368</v>
+        <v>45375</v>
       </c>
       <c r="B23" t="n">
-        <v>2181.6</v>
+        <v>2258.4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2.181,40</t>
+          <t>2.188,50</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.246,60</t>
+          <t>2.276,80</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.170,80</t>
+          <t>2.186,10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>363,89K</t>
+          <t>356,98K</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-0,07%</t>
+          <t>3,52%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45361</v>
+        <v>45368</v>
       </c>
       <c r="B24" t="n">
-        <v>2183.1</v>
+        <v>2181.6</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2.208,50</t>
+          <t>2.181,40</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.216,30</t>
+          <t>2.246,60</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.178,00</t>
+          <t>2.170,80</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>272,86K</t>
+          <t>363,89K</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-1,05%</t>
+          <t>-0,07%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45354</v>
+        <v>45361</v>
       </c>
       <c r="B25" t="n">
-        <v>2206.3</v>
+        <v>2183.1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2.111,70</t>
+          <t>2.208,50</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.223,30</t>
+          <t>2.216,30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.108,50</t>
+          <t>2.178,00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>268,18K</t>
+          <t>272,86K</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>-1,05%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45347</v>
+        <v>45354</v>
       </c>
       <c r="B26" t="n">
-        <v>2116</v>
+        <v>2206.3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2.064,00</t>
+          <t>2.111,70</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.117,40</t>
+          <t>2.223,30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.053,60</t>
+          <t>2.108,50</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>72,03K</t>
+          <t>268,18K</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="B27" t="n">
-        <v>2069.3</v>
+        <v>2116</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2.049,80</t>
+          <t>2.064,00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.073,00</t>
+          <t>2.117,40</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.044,20</t>
+          <t>2.053,60</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>24,94K</t>
+          <t>72,03K</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>2,26%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45333</v>
+        <v>45340</v>
       </c>
       <c r="B28" t="n">
-        <v>2043.9</v>
+        <v>2069.3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2.058,10</t>
+          <t>2.049,80</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.067,00</t>
+          <t>2.073,00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.016,30</t>
+          <t>2.044,20</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>34,25K</t>
+          <t>24,94K</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-0,71%</t>
+          <t>1,24%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45326</v>
+        <v>45333</v>
       </c>
       <c r="B29" t="n">
-        <v>2058.6</v>
+        <v>2043.9</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2.076,20</t>
+          <t>2.058,10</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.080,90</t>
+          <t>2.067,00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.050,80</t>
+          <t>2.016,30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>31,25K</t>
+          <t>34,25K</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1400,892 +1400,7855 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45319</v>
+        <v>45326</v>
       </c>
       <c r="B30" t="n">
-        <v>2073.4</v>
+        <v>2058.6</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2.043,00</t>
+          <t>2.076,20</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.102,50</t>
+          <t>2.080,90</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.037,70</t>
+          <t>2.050,80</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>219,07K</t>
+          <t>31,25K</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>-0,71%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45312</v>
+        <v>45319</v>
       </c>
       <c r="B31" t="n">
-        <v>2036.1</v>
+        <v>2073.4</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2.051,40</t>
+          <t>2.043,00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.058,50</t>
+          <t>2.102,50</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.023,30</t>
+          <t>2.037,70</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>340,46K</t>
+          <t>219,07K</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-0,61%</t>
+          <t>1,83%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45305</v>
+        <v>45312</v>
       </c>
       <c r="B32" t="n">
-        <v>2048.6</v>
+        <v>2036.1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2.073,20</t>
+          <t>2.051,40</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.082,20</t>
+          <t>2.058,50</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.024,30</t>
+          <t>2.023,30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>108,55K</t>
+          <t>340,46K</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-1,10%</t>
+          <t>-0,61%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45298</v>
+        <v>45305</v>
       </c>
       <c r="B33" t="n">
-        <v>2071.4</v>
+        <v>2048.6</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2.071,90</t>
+          <t>2.073,20</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.086,70</t>
+          <t>2.082,20</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.037,30</t>
+          <t>2.024,30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>289,59K</t>
+          <t>108,55K</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>-1,10%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="B34" t="n">
-        <v>2049.8</v>
+        <v>2071.4</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2.072,70</t>
+          <t>2.071,90</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.088,10</t>
+          <t>2.086,70</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.030,80</t>
+          <t>2.037,30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>724,18K</t>
+          <t>289,59K</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-0,96%</t>
+          <t>1,05%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45291</v>
+        <v>45292</v>
       </c>
       <c r="B35" t="n">
-        <v>2069.7</v>
+        <v>2049.8</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2.092,70</t>
+          <t>2.072,70</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.107,70</t>
+          <t>2.088,10</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.051,00</t>
+          <t>2.030,80</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>66,78K</t>
+          <t>724,18K</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-0,10%</t>
+          <t>-0,96%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45285</v>
+        <v>45291</v>
       </c>
       <c r="B36" t="n">
-        <v>2071.8</v>
+        <v>2069.7</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2.066,00</t>
+          <t>2.092,70</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.098,20</t>
+          <t>2.107,70</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.065,10</t>
+          <t>2.051,00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>443,02K</t>
+          <t>66,78K</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-0,96%</t>
+          <t>-0,10%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45284</v>
+        <v>45285</v>
       </c>
       <c r="B37" t="n">
-        <v>2091.8</v>
+        <v>2071.8</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2.085,40</t>
+          <t>2.066,00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.118,00</t>
+          <t>2.098,20</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.084,90</t>
+          <t>2.065,10</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>26,72K</t>
+          <t>443,02K</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>-0,96%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45277</v>
+        <v>45284</v>
       </c>
       <c r="B38" t="n">
-        <v>2088.8</v>
+        <v>2091.8</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2.052,90</t>
+          <t>2.085,40</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.102,30</t>
+          <t>2.118,00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2.048,90</t>
+          <t>2.084,90</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>29,86K</t>
+          <t>26,72K</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>0,14%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="B39" t="n">
-        <v>2055.2</v>
+        <v>2088.8</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2.038,80</t>
+          <t>2.052,90</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.082,00</t>
+          <t>2.102,30</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.007,60</t>
+          <t>2.048,90</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>41,74K</t>
+          <t>29,86K</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,63%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="B40" t="n">
-        <v>2033.9</v>
+        <v>2055.2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2.114,10</t>
+          <t>2.038,80</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.171,50</t>
+          <t>2.082,00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.029,90</t>
+          <t>2.007,60</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>54,82K</t>
+          <t>41,74K</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-3,57%</t>
+          <t>1,05%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="B41" t="n">
-        <v>2109.2</v>
+        <v>2033.9</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2.023,00</t>
+          <t>2.114,10</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2.115,00</t>
+          <t>2.171,50</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2.022,00</t>
+          <t>2.029,90</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>376,45K</t>
+          <t>54,82K</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>-3,57%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45249</v>
+        <v>45256</v>
       </c>
       <c r="B42" t="n">
-        <v>2023.5</v>
+        <v>2109.2</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2.001,20</t>
+          <t>2.023,00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.030,00</t>
+          <t>2.115,00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.987,30</t>
+          <t>2.022,00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>266,31K</t>
+          <t>376,45K</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>4,24%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45242</v>
+        <v>45249</v>
       </c>
       <c r="B43" t="n">
-        <v>2004.8</v>
+        <v>2023.5</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.963,20</t>
+          <t>2.001,20</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2.016,50</t>
+          <t>2.030,00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.955,40</t>
+          <t>1.987,30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>148,00K</t>
+          <t>266,31K</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>0,93%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="B44" t="n">
-        <v>1957.7</v>
+        <v>2004.8</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2.019,60</t>
+          <t>1.963,20</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2.020,00</t>
+          <t>2.016,50</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.956,90</t>
+          <t>1.955,40</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>239,16K</t>
+          <t>148,00K</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-3,06%</t>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="B45" t="n">
-        <v>2019.6</v>
+        <v>1957.7</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2.034,00</t>
+          <t>2.019,60</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2.037,70</t>
+          <t>2.020,00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.998,80</t>
+          <t>1.956,90</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>54,91K</t>
+          <t>239,16K</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>-3,06%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45221</v>
+        <v>45228</v>
       </c>
       <c r="B46" t="n">
-        <v>2018.7</v>
+        <v>2019.6</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2.007,80</t>
+          <t>2.034,00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.039,70</t>
+          <t>2.037,70</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.984,80</t>
+          <t>1.998,80</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>52,70K</t>
+          <t>54,91K</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,04%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45214</v>
+        <v>45221</v>
       </c>
       <c r="B47" t="n">
-        <v>2014.5</v>
+        <v>2018.7</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.961,00</t>
+          <t>2.007,80</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2.029,20</t>
+          <t>2.039,70</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.941,00</t>
+          <t>1.984,80</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>43,21K</t>
+          <t>52,70K</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>0,21%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45207</v>
+        <v>45214</v>
       </c>
       <c r="B48" t="n">
-        <v>1961.1</v>
+        <v>2014.5</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.880,00</t>
+          <t>1.961,00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.965,60</t>
+          <t>2.029,20</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.876,80</t>
+          <t>1.941,00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>48,13K</t>
+          <t>43,21K</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45200</v>
+        <v>45207</v>
       </c>
       <c r="B49" t="n">
-        <v>1864.4</v>
+        <v>1961.1</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.883,30</t>
+          <t>1.880,00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.883,70</t>
+          <t>1.965,60</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.842,50</t>
+          <t>1.876,80</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>34,12K</t>
+          <t>48,13K</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-1,11%</t>
+          <t>5,19%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="B50" t="n">
-        <v>1885.4</v>
+        <v>1864.4</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.944,70</t>
+          <t>1.883,30</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.946,80</t>
+          <t>1.883,70</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.881,50</t>
+          <t>1.842,50</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>626,09K</t>
+          <t>34,12K</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>-1,11%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="B51" t="n">
-        <v>1945.6</v>
+        <v>1885.4</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.945,70</t>
+          <t>1.944,70</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.968,90</t>
+          <t>1.946,80</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.933,10</t>
+          <t>1.881,50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>855,94K</t>
+          <t>626,09K</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-0,03%</t>
+          <t>-3,09%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45179</v>
+        <v>45186</v>
       </c>
       <c r="B52" t="n">
-        <v>1946.2</v>
+        <v>1945.6</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.943,30</t>
+          <t>1.945,70</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.954,60</t>
+          <t>1.968,90</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.921,70</t>
+          <t>1.933,10</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>855,59K</t>
+          <t>855,94K</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>-0,03%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45172</v>
+        <v>45179</v>
       </c>
       <c r="B53" t="n">
-        <v>1942.7</v>
+        <v>1946.2</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.966,70</t>
+          <t>1.943,30</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.972,60</t>
+          <t>1.954,60</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.940,00</t>
+          <t>1.921,70</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>597,43K</t>
+          <t>855,59K</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-1,24%</t>
+          <t>0,18%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="B54" t="n">
-        <v>1967.1</v>
+        <v>1942.7</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.944,00</t>
+          <t>1.966,70</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.980,20</t>
+          <t>1.972,60</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.940,10</t>
+          <t>1.940,00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>726,59K</t>
+          <t>597,43K</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1,40%</t>
+          <t>-1,24%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="B55" t="n">
-        <v>1939.9</v>
+        <v>1967.1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.918,40</t>
+          <t>1.944,00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.951,30</t>
+          <t>1.980,20</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.913,60</t>
+          <t>1.940,10</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>743,62K</t>
+          <t>726,59K</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,40%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
+        <v>45158</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1939.9</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1.918,40</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.951,30</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1.913,60</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>743,62K</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>45151</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B57" t="n">
         <v>1916.5</v>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>1.945,60</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>1.948,20</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1.914,20</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>683,81K</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>-1,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45144</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1946.6</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1.977,60</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.981,70</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1.942,70</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>676,59K</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-1,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1976.1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1.997,90</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.010,90</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1.954,50</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>775,13K</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-1,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1.983,20</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.002,00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1.961,40</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>203,52K</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45123</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1985.8</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1.977,20</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.008,50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1.968,50</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>18,43K</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45116</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1983.4</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1.949,40</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.987,20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1.937,20</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>15,26K</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1951.6</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1.945,40</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.961,50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1.927,60</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9,36K</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45102</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1948.5</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1.952,80</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.962,00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1.919,60</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>9,12K</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>-0,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1948.9</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1.989,40</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.990,80</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1.939,10</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9,16K</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-2,10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45088</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1990.7</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1.993,80</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.005,10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1.956,00</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8,06K</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-0,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1996.8</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1.982,40</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.006,40</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1.973,90</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6,63K</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45074</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1989.1</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1.980,80</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.020,00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1.970,00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7,30K</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45067</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1963.1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1.998,40</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.006,20</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1.954,70</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>433,81K</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>-1,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45060</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2000.3</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2.033,00</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.046,50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1.973,00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>167,19K</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-1,90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45053</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2039.1</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2.044,20</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.075,30</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2.025,00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>269,23K</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-0,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2044.2</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2.019,10</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.102,20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2.004,80</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>105,39K</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45039</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2018.3</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2.011,00</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.039,10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2.001,00</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>52,43K</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45032</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2009.2</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2.033,00</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.046,60</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1.999,50</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>20,73K</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-1,24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45025</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2034.4</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2.032,20</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.080,80</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2.015,00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>27,63K</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-0,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45018</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2044.4</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2.007,50</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.067,10</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1.984,50</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>16,57K</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2004.1</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2.000,30</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.022,80</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1.962,70</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>382,53K</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45004</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2001.7</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2.008,60</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.031,70</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1.953,70</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>387,99K</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1990.2</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1.893,80</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.010,40</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1.892,50</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>326,68K</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1884</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1.877,70</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.891,10</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1.830,20</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>255,85K</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1871.4</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1.834,00</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.880,80</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1.827,60</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>58,18K</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1833.9</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1.867,10</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.873,00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1.832,70</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>23,52K</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-1,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1866.9</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1.892,50</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.898,00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1.844,60</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>24,52K</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-1,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1891.2</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1.890,00</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.919,00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1.880,40</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>26,60K</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-0,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1893.3</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1.962,00</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.992,10</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1.891,30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>24,86K</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>-2,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44948</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1945.6</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1.948,00</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.966,50</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1.929,20</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>502,40K</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1944.9</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1.939,90</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.955,50</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1.915,50</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>164,67K</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1938.5</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1.886,40</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.942,10</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1.886,40</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>283,78K</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1869.7</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1.831,80</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.875,20</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1.829,90</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>814,60K</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>-0,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1885.9</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1.847,20</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.891,10</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1.846,10</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>57,96K</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>3,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1826.2</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1.808,20</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.841,90</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1.804,20</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>491,18K</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-0,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44920</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1842.2</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1.823,80</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.857,00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1.819,90</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>20,64K</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44913</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1819.8</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1.818,10</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.848,40</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1.808,40</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>19,97K</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44906</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1815.6</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1.823,80</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.851,40</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1.797,60</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>19,61K</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-0,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44899</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1825.9</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1.826,50</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.837,30</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1.793,60</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>18,53K</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44892</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1824.7</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1.771,10</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.833,80</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1.753,30</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>141,56K</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44885</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1768.8</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1.766,60</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.776,00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1.733,50</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>262,76K</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>-0,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44878</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1769</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1.783,50</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.806,00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1.764,00</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>228,38K</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>-0,81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>44871</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1783.5</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1.692,50</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.788,40</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1.681,30</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>267,60K</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>5,50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>44864</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1690.6</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1.661,50</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.700,40</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1.632,40</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>97,62K</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>1,90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>44857</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1659.1</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1.676,50</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.693,00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1.655,20</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>64,84K</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-0,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>44850</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1670.2</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1.663,20</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.688,00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1.635,00</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>20,04K</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>44843</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1662.8</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1.717,00</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.720,00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1.659,90</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>34,45K</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>-3,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>44836</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1722.8</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1.682,40</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.751,60</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1.679,50</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>35,83K</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>44829</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1684.9</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1.651,00</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.696,70</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1.622,20</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>703,49K</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>44822</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1655.6</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1.685,40</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.696,90</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1.646,60</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>997,37K</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>-1,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1683.5</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1.728,40</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.746,40</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1.661,90</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1,04M</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>-2,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44808</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1728.6</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1.724,20</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.740,50</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1.701,70</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>718,77K</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44801</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1722.6</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>1.748,40</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.757,90</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1.699,10</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>836,92K</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>-1,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44794</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1749.8</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1.760,60</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.778,80</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1.740,20</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>695,24K</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>-0,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44787</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1762.9</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1.818,90</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.818,90</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1.759,10</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>633,02K</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>-2,90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44780</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1815.5</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1.790,30</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.824,60</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1.786,90</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>618,69K</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44773</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1791.2</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1.782,50</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.812,00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1.770,00</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>781,83K</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44766</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1781.8</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>1.733,80</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.784,60</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1.717,50</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>367,51K</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2,70%</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44759</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1735</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1.713,20</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.745,30</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1.686,30</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>30,82K</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44752</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1711.6</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>1.750,00</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.752,30</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1.703,80</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>26,55K</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>-2,24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44745</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1750.9</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>1.823,00</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.823,90</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1.734,80</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>17,01K</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>-3,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>44738</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1810.4</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1.848,50</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.851,50</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1.792,70</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>12,32K</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>-1,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>44731</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1839.3</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>1.847,50</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.859,00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1.826,70</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>12,19K</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>-0,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>44724</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1849.6</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>1.887,40</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.890,60</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1.814,90</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>15,67K</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>-1,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>44717</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1883.9</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>1.863,40</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.887,40</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1.835,00</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5,79K</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>44710</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1858.3</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>1.862,00</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.886,40</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1.838,60</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>6,12K</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>-0,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>44703</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>1.850,90</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.875,00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1.842,50</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>332,56K</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0,90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>44696</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1848.4</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1.816,00</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.854,50</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1.792,00</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>176,87K</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>44689</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1814.8</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>1.890,90</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.891,80</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1.804,00</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>314,84K</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>-3,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1890.2</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>1.903,10</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.917,60</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1.856,70</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>145,29K</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>-1,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>44675</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1918.6</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>1.937,40</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.942,60</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1.877,80</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>46,35K</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>-1,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>44668</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1941.4</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>1.983,10</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.009,50</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1.935,00</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>36,79K</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>-2,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>44661</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1981.6</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>1.957,10</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.992,20</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1.949,90</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>27,36K</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>44654</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1952.2</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1.933,50</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.958,30</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1.922,30</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>25,22K</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>44647</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1929.2</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>1.962,50</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.965,20</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1.893,20</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>337,10K</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>-1,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1959.8</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>1.927,40</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.972,50</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1.915,50</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>290,48K</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>44633</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1933.9</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1.993,50</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.999,00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1.900,40</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>188,52K</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>-2,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>44626</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1989.4</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>1.981,30</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.082,00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1.964,80</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>390,44K</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>44619</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1969.9</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1.921,00</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.978,10</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1.895,60</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>55,45K</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>44612</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1890.8</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1.904,70</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.979,10</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1.882,00</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>53,22K</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>-0,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1903.1</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1.866,70</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.907,90</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1.849,20</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>30,35K</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>44598</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1845.5</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>1.810,90</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.870,60</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1.810,70</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>46,32K</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>1,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>44591</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1810.8</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1.795,40</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.818,60</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1.788,90</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>25,10K</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>1,20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>44584</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1789.3</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>1.838,30</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.856,70</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1.783,80</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>549,54K</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>-2,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>44577</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1834.1</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>1.819,80</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.850,80</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1.807,20</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>340,34K</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>44570</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>1.798,00</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.831,50</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>1.792,00</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>237,68K</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>44563</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>1.832,90</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.835,40</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1.783,80</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>136,24K</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>-1,70%</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>44556</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1831</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1.809,00</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.833,60</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1.791,90</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>20,20K</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>44549</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1814</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>1.802,40</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.814,20</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1.787,60</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>12,44K</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>44542</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1807.3</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>1.786,60</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.818,00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>1.755,40</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>29,12K</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>44535</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1787</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>1.790,00</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.796,20</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>1.772,90</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>22,46K</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>44528</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1785.8</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>1.792,40</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.813,10</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>1.764,20</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>23,00K</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>-0,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>44521</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1788.1</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>1.850,70</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.853,00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1.780,20</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>575,17K</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>-3,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44514</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1854.3</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>1.876,30</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.881,90</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1.847,00</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>258,96K</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>-0,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44507</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1870.8</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1.822,20</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.873,30</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1.815,90</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>243,74K</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44500</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>1.786,80</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.822,20</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>1.761,00</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>82,65K</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1785.9</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>1.796,40</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.814,60</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1.774,60</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>34,00K</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>-0,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>44486</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1798.3</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>1.769,50</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.817,50</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>1.762,80</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>21,20K</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>44479</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1770.2</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>1.760,30</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.803,60</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1.752,10</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>22,63K</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1759.4</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>1.762,40</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.783,20</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>1.747,90</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>24,01K</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>-0,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44465</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1760.1</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1.751,80</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.766,40</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1.723,70</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>377,15K</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>44458</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1751.7</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>1.754,20</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.788,40</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>1.737,50</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>843,43K</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>44451</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1751.4</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>1.789,80</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.810,60</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>1.745,50</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>890,08K</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>-2,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44444</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1792.1</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>1.833,50</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.833,50</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>1.783,10</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>704,11K</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>-2,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>44437</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1833.7</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>1.821,60</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.836,90</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>1.803,40</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>713,39K</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>44430</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1819.5</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>1.781,20</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.821,90</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>1.778,00</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>772,74K</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>44423</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1784</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>1.780,90</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.797,60</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>1.772,00</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>674,45K</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>44416</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1778.2</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>1.765,00</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.781,90</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>1.677,90</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>939,47K</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1763.1</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>1.817,00</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.835,90</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>1.759,50</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1,00M</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>-2,98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>44402</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1817.2</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1.804,00</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.837,50</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>1.793,00</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>411,51K</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>44395</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1803.6</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>1.814,00</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.827,20</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>1.791,00</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>27,65K</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>-0,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>44388</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1816.7</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>1.809,90</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.836,20</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>1.793,50</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>17,48K</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>44381</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1812.1</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>1.787,40</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.821,00</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1.787,00</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>13,02K</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>44374</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1785.2</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>1.783,10</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1.797,60</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>1.752,50</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>5,51K</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0,30%</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>44367</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1779.8</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>1.769,30</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.797,00</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>1.769,30</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4,95K</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0,50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>44360</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1770.9</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>1.880,70</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.881,20</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>1.763,30</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>9,17K</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>-5,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>44353</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1881.7</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>1.894,30</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1.908,00</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>1.874,40</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>6,41K</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>-0,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>44346</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1893.8</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>1.909,30</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1.920,50</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1.857,60</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>6,28K</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>-0,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>44339</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1906.9</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>1.885,60</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1.915,60</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>1.875,40</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>414,93K</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>44332</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1878.9</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>1.843,50</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.893,20</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1.843,10</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>248,41K</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>44325</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1840</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>1.836,10</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1.849,00</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>1.810,70</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>257,70K</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>44318</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1833.5</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>1.770,40</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1.846,50</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>1.768,50</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>87,85K</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>3,60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>44311</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1769.8</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>1.776,00</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>1.791,50</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>1.756,80</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>43,50K</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>-0,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>44304</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1779.9</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>1.780,10</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.800,00</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>1.765,80</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>14,29K</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>-0,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1782.2</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>1.745,20</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1.786,20</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>1.725,50</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>17,14K</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>44290</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1746.8</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>1.732,10</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>1.761,20</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>1.723,60</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>14,97K</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>44283</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1730.3</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>1.732,40</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>1.734,80</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>1.679,40</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>190,38K</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>-0,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>44276</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1734.7</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>1.747,50</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1.749,20</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>1.721,20</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>350,12K</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>-0,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>44269</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1743.9</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>1.728,20</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>1.756,00</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>1.719,10</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>111,66K</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>44262</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1722.4</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>1.703,90</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>1.740,40</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>1.676,20</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>264,27K</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>44255</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1701.6</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>1.735,40</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1.759,90</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>1.685,80</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>108,27K</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>-1,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>44248</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1731.6</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>1.785,80</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>1.817,60</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>1.718,10</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>43,85K</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>-2,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>44241</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1780.3</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>1.828,00</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>1.829,90</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>1.762,90</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>28,23K</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>-2,50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>44234</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1826</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>1.818,90</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>1.858,90</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>1.809,90</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>23,31K</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1815.6</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>1.867,30</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>1.877,80</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>1.787,30</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>41,21K</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>-2,00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>44220</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1852.7</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>1.858,60</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>1.881,00</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>1.832,40</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>371,79K</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>-0,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>44213</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1859.9</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>1.832,30</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>1.878,10</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>1.804,70</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>269,21K</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>44206</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1833.7</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>1.852,90</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>1.867,80</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>1.821,30</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>290,59K</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>-0,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>44199</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1839.7</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>1.912,50</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>1.966,80</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>1.832,00</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>121,78K</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>-3,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>44192</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1899.6</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>1.890,90</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>1.909,20</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>1.877,20</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>17,01K</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>44185</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1887.4</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>1.896,80</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>1.915,40</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>1.863,30</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>12,98K</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>-0,30%</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>44178</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1893</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>1.849,00</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>1.906,00</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>1.825,00</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>19,31K</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>44171</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1847.6</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>1.846,70</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>1.883,70</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>1.829,20</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>26,71K</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0,20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>44164</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1844</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>1.795,00</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>1.856,20</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>1.771,30</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>23,94K</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2,90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>44157</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1792.1</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>1.875,90</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>1.880,70</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>1.781,20</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>376,51K</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>-4,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>44150</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1878.2</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>1.893,70</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>1.904,30</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>1.855,70</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>188,52K</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>-0,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>44143</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1893</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>1.961,70</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>1.973,30</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>1.854,00</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>260,57K</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>-3,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1959.1</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>1.885,30</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>1.968,90</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>1.881,00</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>110,66K</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>3,81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>44129</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1887.2</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>1.912,30</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1.920,90</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>1.866,70</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>34,72K</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>-1,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>44122</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1912.7</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>1.912,70</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>1.943,20</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>1.902,00</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>25,42K</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>-0,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>44115</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1914</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>1.942,40</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>1.945,30</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>1.892,80</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>18,00K</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>-1,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>44108</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1933.6</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>1.914,30</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>1.944,00</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>1.884,00</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>27,69K</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>44101</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1914.7</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>1.862,70</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>1.930,40</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>1.851,10</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>245,80K</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>44094</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1866.3</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>1.957,30</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>1.962,90</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>1.851,00</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1,66M</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>-4,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>44087</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1962.1</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>1.948,90</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>1.983,80</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>1.938,20</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1,19M</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>44080</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1947.9</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>1.938,00</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>1.975,20</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>1.911,70</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1,12M</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0,70%</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>44073</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1934.3</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1.973,90</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2.001,20</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>1.921,60</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1,49M</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>-2,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>44066</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1974.9</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>1.947,90</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>1.987,00</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>1.908,40</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>1,70M</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>44059</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>1.956,40</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2.024,60</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>1.916,60</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1,83M</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>-0,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>44052</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1949.8</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2.044,80</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2.060,80</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>1.874,20</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>1,87M</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>-3,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>44045</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2028</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>1.997,40</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2.089,20</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>1.975,20</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>1,53M</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>2,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1985.9</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>1.913,10</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2.005,40</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>1.912,20</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>627,36K</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>3,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1910.1</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>1.821,80</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>1.917,40</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>1.818,10</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>47,22K</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>4,90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1820.9</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>1.817,00</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>1.832,00</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>1.804,50</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>19,90K</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>44017</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1815.6</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>1.797,90</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>1.842,30</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>1.791,00</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>26,19K</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>44014</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1801.9</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>1.787,90</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>1.829,80</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>1.779,20</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1,16M</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0,05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1801</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>1.798,10</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>1.816,80</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>1.777,50</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>13,52K</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1789.8</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>1.773,00</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>1.803,70</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>1.763,10</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>11,21K</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1761</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>1.749,70</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>1.767,00</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>1.715,30</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>7,30K</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1746.2</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>1.694,70</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>1.763,70</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>1.693,80</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>8,40K</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1694.1</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>1.766,50</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>1.768,50</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>1.683,80</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>12,29K</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>-3,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1760.7</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>1.753,00</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>1.763,30</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>1.701,60</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>317,47K</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1753.5</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>1.769,40</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>1.787,50</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>1.731,20</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>209,36K</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>-0,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1768</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>1.718,10</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>1.772,80</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>1.705,00</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>180,85K</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>2,40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1726.6</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>1.718,10</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>1.745,10</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>1.691,00</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>136,99K</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43947</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1707.2</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>1.749,20</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>1.750,00</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>1.683,30</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>44,92K</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>-1,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43940</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1739.7</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>1.694,50</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>1.767,40</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>1.668,40</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>43,80K</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43933</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1700.1</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>1.739,30</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>1.789,00</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>1.693,10</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>39,40K</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>-2,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43926</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1752.1</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>1.648,10</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>1.753,50</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>1.638,20</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>31,41K</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>6,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43919</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1645.5</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>1.663,10</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>1.674,00</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>1.580,00</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>29,85K</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>-0,52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43912</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1654.1</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>1.508,40</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>1.698,00</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>1.489,40</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>687,00K</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>11,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43905</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1488.1</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>1.564,80</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>1.576,00</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>1.453,00</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>331,45K</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>-2,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43898</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1519.5</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>1.694,50</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>1.707,80</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>1.507,00</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>362,85K</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>-9,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1676.1</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>1.598,40</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>1.696,50</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>1.581,20</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>185,35K</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>6,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43884</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1571.8</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>1.660,30</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>1.697,00</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>1.569,10</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>172,56K</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>-5,00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43877</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1654.6</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>1.590,40</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>1.657,40</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>1.587,50</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>59,50K</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43870</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1591.9</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>1.581,60</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>1.593,60</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>1.570,50</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>57,20K</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>0,80%</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43863</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1579.2</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>1.603,60</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>1.603,90</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>1.556,90</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>30,44K</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>-0,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43856</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1593.8</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>1.586,10</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>1.601,20</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>1.567,90</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>591,82K</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>0,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43849</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1578.2</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>1.564,20</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>1.581,60</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>1.552,10</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>338,76K</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43842</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1566.5</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>1.569,50</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>1.569,50</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>1.542,80</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>241,27K</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>0,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>43835</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1566.4</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>1.572,20</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>1.619,60</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>1.547,40</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>233,32K</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>43828</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1558.7</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>1.521,90</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>1.562,20</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>1.519,60</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>64,59K</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>43821</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1524.1</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>1.487,20</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>1.525,60</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>1.487,20</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>26,07K</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>2,52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>43814</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1486.6</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>1.485,80</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>1.491,30</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>1.480,40</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>26,36K</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>-0,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>43807</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1486.9</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>1.469,00</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>1.496,70</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>1.469,00</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>38,54K</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>1,10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1470.7</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>1.474,10</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>1.495,20</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>1.465,80</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>59,82K</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>-0,50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>43793</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1478.1</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>1.467,50</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>1.478,30</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>1.456,60</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>432,65K</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>43786</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1470.5</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>1.475,10</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>1.486,00</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>1.463,30</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>284,33K</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>-0,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>43779</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1475.4</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>1.466,70</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>1.482,20</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>1.453,10</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>259,20K</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>43772</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1469.8</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>1.522,90</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>1.524,00</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>1.463,40</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>392,00K</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>-3,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>43765</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1518.5</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>1.514,00</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>1.525,20</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>1.490,30</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>103,18K</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>43758</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1512.3</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>1.502,00</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>1.527,80</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>1.491,00</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>30,12K</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>43751</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1501</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>1.499,20</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>1.509,20</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>1.487,40</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>34,27K</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>0,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>43744</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1495.5</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>1.524,20</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>1.529,00</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>1.484,90</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>30,11K</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>-1,59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>43737</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1519.7</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>1.509,50</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>1.532,40</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>1.471,80</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>48,83K</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>43730</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1513.1</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>1.521,50</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>1.543,30</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>1.500,50</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>1,66M</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>-0,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>43723</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1515.1</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>1.513,10</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>1.524,50</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>1.490,70</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>1,63M</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>43716</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1499.5</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>1.516,40</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>1.532,20</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>1.492,10</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>1,88M</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>-1,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1515.5</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>1.535,20</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>1.566,20</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>1.510,70</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>2,12M</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>-0,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>43702</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1529.4</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>1.545,40</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>1.565,00</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>1.525,60</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>1,90M</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>-0,53%</t>
         </is>
       </c>
     </row>
